--- a/data/trans_dic/P15A-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P15A-Habitat-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -926,7 +926,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1066,7 +1066,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">

--- a/data/trans_dic/P15A-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P15A-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>3,6%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>4,4%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>2,29%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>3,58%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>2,37%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>4,23%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,86%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,99%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,31%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,16%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,62%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 23,25</t>
+          <t>0,93; 10,08</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 10,53</t>
+          <t>1,54; 9,14</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 26,42</t>
+          <t>0,68; 7,16</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 18,74</t>
+          <t>1,1; 12,05</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 20,75</t>
+          <t>0,75; 6,34</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 30,57</t>
+          <t>1,06; 9,61</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 30,57</t>
+          <t>0; 1,65</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 10,53</t>
+          <t>0,69; 3,95</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 11,83</t>
+          <t>1,25; 6,55</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 8,27</t>
+          <t>2,1; 7,36</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 15,69</t>
+          <t>0,34; 3,11</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 7,06</t>
+          <t>1,36; 5,96</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,22%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,54%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,43%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,5%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,29%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,41%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,37%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,05%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,76%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,47%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,9%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,78%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 3,68</t>
+          <t>2,01; 5,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 4,34</t>
+          <t>0,68; 2,73</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 5,03</t>
+          <t>1,3; 3,83</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 4,07</t>
+          <t>1,25; 4,7</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 6,57</t>
+          <t>1,32; 3,84</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 4,16</t>
+          <t>2,05; 5,28</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 4,55</t>
+          <t>2,16; 5,45</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,52</t>
+          <t>2,08; 4,24</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,39</t>
+          <t>1,89; 3,78</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,15</t>
+          <t>1,67; 3,58</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,42</t>
+          <t>2,01; 4,02</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,57</t>
+          <t>2,04; 4,1</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,45%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,93%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,22%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,75%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,11%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,76%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,3%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,88%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,78%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,84%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,75%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,82%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,42</t>
+          <t>3,22; 6,01</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,59</t>
+          <t>1,88; 4,19</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 3,3</t>
+          <t>2,28; 4,65</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,9</t>
+          <t>1,76; 4,35</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 3,48</t>
+          <t>2,1; 4,36</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,7</t>
+          <t>1,78; 3,85</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 4,25</t>
+          <t>1,38; 3,49</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,15</t>
+          <t>1,91; 4,32</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,44</t>
+          <t>2,96; 4,72</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,33</t>
+          <t>2,17; 3,73</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,88</t>
+          <t>2,07; 3,62</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,25</t>
+          <t>2,05; 3,87</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,51%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,6%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,61%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,73%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,53%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,73%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,34%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,57%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,52%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,67%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,48%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,19%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 4,25</t>
+          <t>2,24; 5,28</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 3,3</t>
+          <t>1,66; 3,99</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 5,45</t>
+          <t>0,91; 2,75</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 6,15</t>
+          <t>0,94; 3,2</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 5,3</t>
+          <t>2,32; 5,18</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 3,54</t>
+          <t>1,67; 4,11</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 6,57</t>
+          <t>0,66; 2,41</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 2,74</t>
+          <t>1,67; 3,76</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 2,39</t>
+          <t>2,59; 4,69</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,73</t>
+          <t>1,92; 3,71</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 3,04</t>
+          <t>0,99; 2,21</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,92</t>
+          <t>1,59; 3,0</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,58%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,65%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,95%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,89%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,28%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,28%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,27%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,3%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,9%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,93%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,12%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,12%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 3,3</t>
+          <t>2,48; 5,01</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 2,2</t>
+          <t>2,5; 4,98</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 3,19</t>
+          <t>1,95; 4,2</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 3,04</t>
+          <t>1,12; 2,9</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 4,25</t>
+          <t>1,44; 3,35</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 2,77</t>
+          <t>1,52; 3,41</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 3,48</t>
+          <t>2,3; 4,64</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,73</t>
+          <t>1,63; 3,16</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,88</t>
+          <t>2,21; 3,88</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,24</t>
+          <t>2,23; 3,73</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,68</t>
+          <t>2,4; 4,0</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,11</t>
+          <t>1,57; 2,74</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,76%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,87%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,63%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,27%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,78%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,76%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,47%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,62%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,26%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,82%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,55%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,46%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,81</t>
+          <t>3,14; 4,49</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,69</t>
+          <t>2,3; 3,5</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,99</t>
+          <t>2,09; 3,21</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,9</t>
+          <t>1,76; 2,92</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,13</t>
+          <t>2,25; 3,37</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,79</t>
+          <t>2,26; 3,38</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,11</t>
+          <t>1,97; 3,11</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>2,17; 3,22</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>2,86; 3,72</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>2,41; 3,25</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,52</t>
+          <t>2,2; 2,96</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>2,1; 2,85</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P15A-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P15A-Habitat-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>3,6%</t>
+          <t>3,28%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>4,4%</t>
+          <t>2,01%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,29%</t>
+          <t>2,41%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>3,58%</t>
+          <t>2,61%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>2,37%</t>
+          <t>2,31%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>4,23%</t>
+          <t>3,54%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,8%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>1,86%</t>
+          <t>2,83%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>2,99%</t>
+          <t>2,8%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>4,31%</t>
+          <t>2,77%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>1,16%</t>
+          <t>2,6%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>2,62%</t>
+          <t>2,72%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,93; 10,08</t>
+          <t>2,05; 4,82</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,54; 9,14</t>
+          <t>1,07; 3,19</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,68; 7,16</t>
+          <t>1,42; 3,68</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,1; 12,05</t>
+          <t>1,44; 4,78</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,75; 6,34</t>
+          <t>1,3; 3,59</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,06; 9,61</t>
+          <t>2,23; 5,21</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,65</t>
+          <t>1,7; 4,41</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,69; 3,95</t>
+          <t>1,99; 3,83</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,25; 6,55</t>
+          <t>2,04; 3,72</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>2,1; 7,36</t>
+          <t>2,0; 3,74</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,34; 3,11</t>
+          <t>1,85; 3,54</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>1,36; 5,96</t>
+          <t>2,04; 3,87</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>4,45%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>2,93%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>3,22%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>1,54%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>2,43%</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>2,5%</t>
+          <t>2,25%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>2,29%</t>
+          <t>3,11%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>3,41%</t>
+          <t>2,76%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>3,37%</t>
+          <t>2,3%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>3,05%</t>
+          <t>2,87%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>2,76%</t>
+          <t>3,78%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>2,47%</t>
+          <t>2,84%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>2,9%</t>
+          <t>2,75%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>2,78%</t>
+          <t>2,53%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,01; 5,0</t>
+          <t>3,22; 6,01</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,68; 2,73</t>
+          <t>1,88; 4,19</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,3; 3,83</t>
+          <t>2,28; 4,65</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,25; 4,7</t>
+          <t>1,12; 3,63</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,32; 3,84</t>
+          <t>2,1; 4,36</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,05; 5,28</t>
+          <t>1,78; 3,85</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,16; 5,45</t>
+          <t>1,38; 3,49</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,08; 4,24</t>
+          <t>1,91; 4,28</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,89; 3,78</t>
+          <t>2,96; 4,72</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1,67; 3,58</t>
+          <t>2,17; 3,73</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>2,01; 4,02</t>
+          <t>2,07; 3,62</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>2,04; 4,1</t>
+          <t>1,65; 3,53</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>4,45%</t>
+          <t>3,51%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,93%</t>
+          <t>2,6%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3,22%</t>
+          <t>1,61%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,75%</t>
+          <t>1,71%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>3,11%</t>
+          <t>3,53%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>2,76%</t>
+          <t>2,73%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>2,3%</t>
+          <t>1,34%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>2,88%</t>
+          <t>2,21%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>3,78%</t>
+          <t>3,52%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>2,84%</t>
+          <t>2,67%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>2,75%</t>
+          <t>1,48%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>2,82%</t>
+          <t>1,99%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,22; 6,01</t>
+          <t>2,24; 5,28</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,88; 4,19</t>
+          <t>1,66; 3,99</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,28; 4,65</t>
+          <t>0,91; 2,75</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,76; 4,35</t>
+          <t>0,94; 3,19</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,1; 4,36</t>
+          <t>2,32; 5,18</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,78; 3,85</t>
+          <t>1,67; 4,11</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,38; 3,49</t>
+          <t>0,66; 2,41</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,91; 4,32</t>
+          <t>1,12; 3,44</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,96; 4,72</t>
+          <t>2,59; 4,69</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>2,17; 3,73</t>
+          <t>1,92; 3,71</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>2,07; 3,62</t>
+          <t>0,99; 2,21</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>2,05; 3,87</t>
+          <t>1,27; 2,81</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>3,51%</t>
+          <t>3,58%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2,6%</t>
+          <t>3,65%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,61%</t>
+          <t>2,95%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1,73%</t>
+          <t>1,89%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>3,53%</t>
+          <t>2,28%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>2,73%</t>
+          <t>2,28%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>1,34%</t>
+          <t>3,27%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>2,57%</t>
+          <t>2,21%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>3,52%</t>
+          <t>2,9%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>2,67%</t>
+          <t>2,93%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>1,48%</t>
+          <t>3,12%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>2,19%</t>
+          <t>2,06%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,24; 5,28</t>
+          <t>2,48; 5,01</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,66; 3,99</t>
+          <t>2,5; 4,98</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,91; 2,75</t>
+          <t>1,95; 4,2</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,94; 3,2</t>
+          <t>1,13; 2,88</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,32; 5,18</t>
+          <t>1,44; 3,35</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,67; 4,11</t>
+          <t>1,52; 3,41</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,66; 2,41</t>
+          <t>2,3; 4,64</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,67; 3,76</t>
+          <t>1,49; 3,04</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>2,59; 4,69</t>
+          <t>2,21; 3,88</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>1,92; 3,71</t>
+          <t>2,23; 3,73</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0,99; 2,21</t>
+          <t>2,4; 4,0</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>1,59; 3,0</t>
+          <t>1,52; 2,71</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>3,58%</t>
+          <t>3,76%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>3,65%</t>
+          <t>2,87%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>2,95%</t>
+          <t>2,63%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,89%</t>
+          <t>2,11%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>2,28%</t>
+          <t>2,78%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>2,28%</t>
+          <t>2,76%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>3,27%</t>
+          <t>2,47%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>2,3%</t>
+          <t>2,5%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>2,9%</t>
+          <t>3,26%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>2,93%</t>
+          <t>2,82%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>3,12%</t>
+          <t>2,55%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>2,12%</t>
+          <t>2,31%</t>
         </is>
       </c>
     </row>
@@ -1284,214 +1284,74 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,48; 5,01</t>
+          <t>3,14; 4,49</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,5; 4,98</t>
+          <t>2,3; 3,5</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,95; 4,2</t>
+          <t>2,09; 3,21</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,12; 2,9</t>
+          <t>1,55; 2,78</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,44; 3,35</t>
+          <t>2,25; 3,37</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,52; 3,41</t>
+          <t>2,26; 3,38</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>2,3; 4,64</t>
+          <t>1,97; 3,11</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,63; 3,16</t>
+          <t>2,03; 3,07</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>2,21; 3,88</t>
+          <t>2,86; 3,72</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>2,23; 3,73</t>
+          <t>2,41; 3,25</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>2,4; 4,0</t>
+          <t>2,2; 2,96</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>1,57; 2,74</t>
+          <t>1,89; 2,72</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>3,76%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>2,87%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>2,63%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>2,27%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>2,78%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>2,76%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>2,47%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>2,62%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>3,26%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>2,82%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>2,55%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>2,46%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>3,14; 4,49</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>2,3; 3,5</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>2,09; 3,21</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>1,76; 2,92</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>2,25; 3,37</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>2,26; 3,38</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>1,97; 3,11</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>2,17; 3,22</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>2,86; 3,72</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>2,41; 3,25</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>2,2; 2,96</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>2,1; 2,85</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1501,7 +1361,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_dic/P15A-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P15A-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,05; 4,82</t>
+          <t>2,11; 4,91</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,07; 3,19</t>
+          <t>1,19; 3,38</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,42; 3,68</t>
+          <t>1,42; 3,75</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,44; 4,78</t>
+          <t>1,53; 5,17</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,3; 3,59</t>
+          <t>1,4; 3,74</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,23; 5,21</t>
+          <t>2,14; 5,29</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,7; 4,41</t>
+          <t>1,7; 4,31</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,99; 3,83</t>
+          <t>2,1; 3,91</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,04; 3,72</t>
+          <t>2,03; 3,86</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>2,0; 3,74</t>
+          <t>1,92; 3,7</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>1,85; 3,54</t>
+          <t>1,79; 3,43</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>2,04; 3,87</t>
+          <t>2,05; 3,91</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,22; 6,01</t>
+          <t>3,22; 5,93</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,88; 4,19</t>
+          <t>2,01; 4,32</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,28; 4,65</t>
+          <t>2,2; 4,52</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,12; 3,63</t>
+          <t>1,04; 3,5</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,1; 4,36</t>
+          <t>2,09; 4,46</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,78; 3,85</t>
+          <t>1,85; 3,91</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,38; 3,49</t>
+          <t>1,4; 3,54</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,91; 4,28</t>
+          <t>1,97; 4,32</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,96; 4,72</t>
+          <t>2,85; 4,73</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>2,17; 3,73</t>
+          <t>2,16; 3,71</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>2,07; 3,62</t>
+          <t>2,1; 3,59</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,65; 3,53</t>
+          <t>1,65; 3,43</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,24; 5,28</t>
+          <t>2,32; 5,34</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,66; 3,99</t>
+          <t>1,57; 4,11</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,91; 2,75</t>
+          <t>0,84; 2,67</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,94; 3,19</t>
+          <t>0,89; 2,98</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,32; 5,18</t>
+          <t>2,22; 5,18</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,67; 4,11</t>
+          <t>1,75; 4,16</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,66; 2,41</t>
+          <t>0,68; 2,39</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,12; 3,44</t>
+          <t>1,13; 3,38</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,59; 4,69</t>
+          <t>2,59; 4,66</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1,92; 3,71</t>
+          <t>1,88; 3,68</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,99; 2,21</t>
+          <t>0,95; 2,3</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,27; 2,81</t>
+          <t>1,21; 2,74</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,48; 5,01</t>
+          <t>2,56; 4,97</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,5; 4,98</t>
+          <t>2,47; 4,99</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,95; 4,2</t>
+          <t>1,97; 4,12</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,13; 2,88</t>
+          <t>1,15; 2,98</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,44; 3,35</t>
+          <t>1,46; 3,44</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,52; 3,41</t>
+          <t>1,41; 3,46</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,3; 4,64</t>
+          <t>2,3; 4,66</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,49; 3,04</t>
+          <t>1,6; 3,1</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>2,21; 3,88</t>
+          <t>2,16; 3,7</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>2,23; 3,73</t>
+          <t>2,17; 3,75</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>2,4; 4,0</t>
+          <t>2,4; 4,07</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>1,52; 2,71</t>
+          <t>1,57; 2,66</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,14; 4,49</t>
+          <t>3,12; 4,42</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,3; 3,5</t>
+          <t>2,34; 3,56</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,09; 3,21</t>
+          <t>2,14; 3,19</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,55; 2,78</t>
+          <t>1,58; 2,82</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,25; 3,37</t>
+          <t>2,23; 3,4</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,26; 3,38</t>
+          <t>2,25; 3,38</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,97; 3,11</t>
+          <t>2,0; 3,11</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>2,03; 3,07</t>
+          <t>1,99; 3,13</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>2,86; 3,72</t>
+          <t>2,85; 3,77</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>2,41; 3,25</t>
+          <t>2,39; 3,24</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>2,2; 2,96</t>
+          <t>2,17; 2,97</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>1,89; 2,72</t>
+          <t>1,89; 2,71</t>
         </is>
       </c>
     </row>
@@ -1364,4 +1365,1212 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha tenido un accidente en los últimos tres meses que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>22782</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>14144</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>16230</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>16586</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>15867</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>24677</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>18852</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>19143</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>38649</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>38822</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>35082</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>35729</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>14646; 34081</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>8388; 23747</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>9591; 25324</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>9705; 32846</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>9647; 25733</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>14938; 36904</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>11469; 29021</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>14190; 26427</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>28013; 53308</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>26830; 51762</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>24090; 46167</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>26877; 51207</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>42780</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>29860</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>32928</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>26822</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>30135</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>28455</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>23970</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>27542</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>72915</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>58316</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>56899</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>54364</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>30944; 57041</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>20461; 43932</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>22507; 46221</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>12388; 41790</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>20213; 43206</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>19062; 40334</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>14595; 36918</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>18920; 41418</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>54950; 91354</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>44320; 76096</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>43431; 74249</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>35567; 73777</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>23806</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>19714</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>12265</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>12016</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>24114</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>21238</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>10550</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>20650</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>47920</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>40952</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>22815</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>32665</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>15752; 36220</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>11892; 31111</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>6413; 20301</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>6249; 20994</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>15164; 35416</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>13639; 32295</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>5332; 18773</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>10569; 31570</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>35328; 63457</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>28833; 56550</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>14649; 35457</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>19785; 44824</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>33710</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>34596</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>27687</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>17506</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>23689</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>23961</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>34138</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>24151</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>57399</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>58556</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>61825</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>41657</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>24117; 46814</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>23418; 47260</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>18487; 38612</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>10679; 27611</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>15135; 35691</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>14808; 36401</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>23984; 48634</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>17469; 33908</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>42691; 73266</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>43365; 74965</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>47491; 80737</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>31674; 53788</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>158</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>209</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>184</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>164</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>237</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>123077</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>98315</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>89111</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>72930</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>93806</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>98331</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>87510</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>91486</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>216883</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>196646</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>176621</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>164416</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>102111; 144855</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>80016; 122151</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>72684; 108185</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>54522; 97424</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>75288; 115059</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>79889; 120306</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>71030; 110136</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>73012; 114774</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>189848; 251213</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>167014; 226559</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>150790; 205997</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>134783; 193208</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>